--- a/data/trans_camb/P28A_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P28A_2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,62</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,9</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-8,11</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-6,06</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-4,83</t>
+          <t>-3,34</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 5,57</t>
+          <t>-3,09; 2,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -5,76</t>
+          <t>-8,01; -3,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -2,02</t>
+          <t>-5,9; -0,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 0,02</t>
+          <t>-2,84; 1,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 3,81</t>
+          <t>-5,14; -1,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -4,05</t>
+          <t>-5,18; -1,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,04; -3,1</t>
+          <t>-2,25; 1,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -2,44</t>
+          <t>-6,07; -3,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,19</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-10,41; -5,82</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-8,61; -3,57</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-7,34; -2,03</t>
+          <t>-4,85; -1,74</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>-3,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-83,64%</t>
+          <t>-82,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-52,71%</t>
+          <t>-49,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-35,01%</t>
+          <t>-11,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>-61,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-64,76%</t>
+          <t>-58,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-59,63%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-57,05%</t>
+          <t>-72,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-74,8%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-55,86%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-44,58%</t>
+          <t>-53,21%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 63,48</t>
+          <t>-36,83; 38,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-92,61; -61,31</t>
+          <t>-92,85; -61,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,09; -19,46</t>
+          <t>-70,9; -12,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,12; 2,4</t>
+          <t>-46,49; 31,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,13; 41,9</t>
+          <t>-78,17; -30,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,74; -40,3</t>
+          <t>-77,08; -29,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-78,34; -31,13</t>
+          <t>-31,42; 23,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,41; -23,03</t>
+          <t>-83,16; -56,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 34,67</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-83,91; -61,72</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-69,91; -36,21</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-60,24; -21,33</t>
+          <t>-68,31; -29,78</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,13</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,42</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,91</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-6,23</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-6,0</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-5,66</t>
+          <t>-3,26</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 8,17</t>
+          <t>-2,63; 6,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -4,06</t>
+          <t>-8,45; -3,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,3; -3,18</t>
+          <t>-7,8; -2,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,76; -3,42</t>
+          <t>-1,78; 2,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 6,57</t>
+          <t>-3,19; 0,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 0,56</t>
+          <t>-3,1; 0,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 0,09</t>
+          <t>-1,38; 3,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 7,72</t>
+          <t>-5,03; -1,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 6,63</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-9,29; -3,42</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; -3,14</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-9,04; -1,41</t>
+          <t>-4,99; -1,49</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-69,81%</t>
+          <t>-71,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-63,76%</t>
+          <t>-62,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-76,51%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>-42,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-45,72%</t>
+          <t>-50,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-52,85%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,03%</t>
+          <t>-63,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-63,22%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-60,85%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-57,39%</t>
+          <t>-59,3%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,07; 84,21</t>
+          <t>-29,49; 96,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-85,54; -36,74</t>
+          <t>-86,29; -44,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-80,35; -30,64</t>
+          <t>-79,92; -27,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-93,64; -33,27</t>
+          <t>-47,26; 113,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 134,95</t>
+          <t>-78,61; 25,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,28; 18,88</t>
+          <t>-81,09; 21,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-81,09; 14,06</t>
+          <t>-22,51; 77,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,23; 147,16</t>
+          <t>-78,02; -39,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 77,54</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-78,54; -37,41</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-76,38; -35,34</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-80,29; -12,85</t>
+          <t>-77,02; -31,46</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,27</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-4,74</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-4,95</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
+          <t>-2,55</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 9,26</t>
+          <t>-4,61; 6,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,25; -2,6</t>
+          <t>-8,68; -1,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,69; -3,27</t>
+          <t>-9,16; -1,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 9,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 25,18</t>
+          <t>-3,81; 2,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 8,16</t>
+          <t>-3,43; 3,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 8,03</t>
+          <t>-1,38; 6,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,11; -0,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 11,26</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-9,9; -0,91</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-9,47; -0,01</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-5,21; -0,28</t>
         </is>
       </c>
     </row>
@@ -1344,12 +1170,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-91,22%</t>
+          <t>-88,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1359,47 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>180,89%</t>
+          <t>-30,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,86%</t>
+          <t>-13,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-13,14%</t>
+          <t>63,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>64,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-67,87%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-70,9%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-68,86%</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,88; 259,58</t>
+          <t>-71,45; 263,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,07</t>
+          <t>-100,0; 55,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1427,47 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,73; 737,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 1009,95</t>
+          <t>-100,0; 393,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,97; 499,57</t>
+          <t>-100,0; 443,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,07; 265,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,92; 10,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 256,63</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-92,47; 1,69</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-94,81; 30,95</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-100,0; 10,09</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,25</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,51</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-7,01</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-5,92</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-4,39</t>
+          <t>-3,21</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 4,41</t>
+          <t>-1,7; 2,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,39; -6,09</t>
+          <t>-7,09; -4,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,87; -4,14</t>
+          <t>-6,06; -2,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,34; -1,74</t>
+          <t>-1,24; 1,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 4,86</t>
+          <t>-3,44; -1,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -2,75</t>
+          <t>-3,34; -0,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -2,57</t>
+          <t>-1,15; 1,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -0,9</t>
+          <t>-4,89; -2,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,41</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-8,86; -5,49</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-7,55; -4,05</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-6,52; -2,43</t>
+          <t>-4,25; -2,17</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-78,32%</t>
+          <t>-78,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-61,78%</t>
+          <t>-59,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-44,74%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>-53,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-55,96%</t>
+          <t>-52,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-54,41%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-42,54%</t>
+          <t>-68,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-69,91%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-58,99%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-43,8%</t>
+          <t>-56,69%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,66 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 47,08</t>
+          <t>-20,97; 45,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-87,17; -65,64</t>
+          <t>-86,98; -64,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-75,16; -41,84</t>
+          <t>-73,08; -37,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-62,87; -17,99</t>
+          <t>-24,85; 41,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 58,5</t>
+          <t>-70,95; -31,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,5; -33,02</t>
+          <t>-67,92; -23,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,76; -30,61</t>
+          <t>-19,08; 30,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-64,71; -10,49</t>
+          <t>-77,49; -57,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 36,83</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-78,78; -59,54</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-68,66; -43,9</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-60,01; -25,82</t>
+          <t>-67,58; -41,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
